--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CDF91E-5D98-4426-82BB-5C7070B9057E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487D9560-9620-4FE5-8B87-8C165F024B19}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="54">
   <si>
     <t>To Do</t>
   </si>
@@ -97,15 +97,6 @@
     <t>Woensdag</t>
   </si>
   <si>
-    <t>Zaterdag</t>
-  </si>
-  <si>
-    <t>Week 1 | 23-4 tot 27-14</t>
-  </si>
-  <si>
-    <t>Week 1 | 23-4 tot 27-15</t>
-  </si>
-  <si>
     <t>Week 2 | 30-4 tot 4-5</t>
   </si>
   <si>
@@ -140,13 +131,64 @@
   </si>
   <si>
     <t>Bezig</t>
+  </si>
+  <si>
+    <t>Officiele deadline: begin van code</t>
+  </si>
+  <si>
+    <t>Officiele deadline: alles af 14:00</t>
+  </si>
+  <si>
+    <t>Definitief concept</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>brainstormen</t>
+  </si>
+  <si>
+    <t>concept bedenken</t>
+  </si>
+  <si>
+    <t>planning maken</t>
+  </si>
+  <si>
+    <t>vakantie</t>
+  </si>
+  <si>
+    <t>Doelgroep vinden</t>
+  </si>
+  <si>
+    <t>Interview</t>
+  </si>
+  <si>
+    <t>1e gebruikers test</t>
+  </si>
+  <si>
+    <t>Visuals, sound, interactie ontwerpen</t>
+  </si>
+  <si>
+    <t>Story board</t>
+  </si>
+  <si>
+    <t>Programeren</t>
+  </si>
+  <si>
+    <t>Laatste bug fixes</t>
+  </si>
+  <si>
+    <t>Samenwerkings contract</t>
+  </si>
+  <si>
+    <t>Goedkeuring contract</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +215,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -229,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,6 +295,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -525,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,10 +598,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -558,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -566,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -582,7 +633,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -698,16 +749,25 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
@@ -741,354 +801,433 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F70" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B94" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E94" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E106" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E118" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E93" s="2" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="2"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F142" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E105" s="2" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="2"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="2"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F153" s="2" t="s">
+      <c r="F154" s="2" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487D9560-9620-4FE5-8B87-8C165F024B19}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1808357-F85B-4D9A-9567-8DB370984622}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="57">
   <si>
     <t>To Do</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>Goedkeuring contract</t>
+  </si>
+  <si>
+    <t>Concept afmaken</t>
+  </si>
+  <si>
+    <t>IEDEREEN</t>
+  </si>
+  <si>
+    <t>Game engines uitzoeken</t>
   </si>
 </sst>
 </file>
@@ -576,16 +585,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.77734375" customWidth="1"/>
     <col min="2" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.35">
@@ -708,7 +718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
@@ -717,8 +727,9 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -727,8 +738,9 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -747,71 +759,54 @@
       <c r="F21" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>25</v>
       </c>
@@ -822,8 +817,9 @@
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
@@ -842,18 +838,21 @@
       <c r="F34" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>26</v>
       </c>
@@ -862,8 +861,9 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>17</v>
       </c>
@@ -882,53 +882,44 @@
       <c r="F46" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>39</v>
       </c>
-      <c r="B47" t="s">
+      <c r="G47" t="s">
         <v>53</v>
       </c>
-      <c r="C47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" t="s">
-        <v>53</v>
-      </c>
-      <c r="F47" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>27</v>
       </c>
@@ -937,8 +928,9 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>17</v>
       </c>
@@ -957,18 +949,21 @@
       <c r="F58" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>28</v>
       </c>
@@ -977,8 +972,9 @@
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="4"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>17</v>
       </c>
@@ -997,23 +993,26 @@
       <c r="F70" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>29</v>
       </c>
@@ -1022,8 +1021,9 @@
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>17</v>
       </c>
@@ -1042,23 +1042,26 @@
       <c r="F82" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>30</v>
       </c>
@@ -1067,8 +1070,9 @@
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>17</v>
       </c>
@@ -1087,23 +1091,26 @@
       <c r="F94" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>31</v>
       </c>
@@ -1112,8 +1119,9 @@
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" s="4"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>17</v>
       </c>
@@ -1132,23 +1140,26 @@
       <c r="F106" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>32</v>
       </c>
@@ -1157,8 +1168,9 @@
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" s="4"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>17</v>
       </c>
@@ -1177,58 +1189,23 @@
       <c r="F118" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="2"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F142" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="2"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
